--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_connection_point_test_ni_connection_point_virtual_circuit_identifier_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_connection_point_test_ni_connection_point_virtual_circuit_identifier_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:83f93b39-c2c0-4545-ba1e-5ba914c506c9"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:f49db870-95c8-488a-bdc3-259f96cfa473"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
